--- a/DA_Excel/Excel Files/Demo_worksheets.xlsx
+++ b/DA_Excel/Excel Files/Demo_worksheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alastair Tyson\Documents\Bootcamp\Day 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Plamen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C182D685-F9A1-4417-92BF-3992E3C8D2E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA467090-F8DE-478F-99C7-C73201F5C53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="demo1_accounts" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3016" uniqueCount="1582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3018" uniqueCount="1584">
   <si>
     <t>Antiochos</t>
   </si>
@@ -4787,6 +4787,24 @@
   </si>
   <si>
     <t>1400000US53077940006</t>
+  </si>
+  <si>
+    <t>Not available in older Excel versions.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">XLOOKUP </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Optional)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -5131,7 +5149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -5780,19 +5798,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="31.5" customWidth="1"/>
+    <col min="10" max="10" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="31.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>77</v>
       </c>
@@ -5808,8 +5830,14 @@
       <c r="G1" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J1" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -5819,8 +5847,11 @@
       <c r="G2">
         <v>1459</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>73</v>
       </c>
@@ -5830,8 +5861,11 @@
       <c r="G3">
         <v>10384</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>10384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>74</v>
       </c>
@@ -5839,7 +5873,7 @@
         <v>3958</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>75</v>
       </c>
@@ -5847,7 +5881,7 @@
         <v>10384</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>76</v>
       </c>
@@ -5855,7 +5889,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>82</v>
       </c>
@@ -5865,6 +5899,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
